--- a/group-reports/tables/shahriar-1-2-tests-first-results-test-2.xlsx
+++ b/group-reports/tables/shahriar-1-2-tests-first-results-test-2.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>1512</t>
+          <t>1512 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>7148</t>
+          <t>7148 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>3338.40</t>
+          <t>3338.40 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>301 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>12156</t>
+          <t>12156 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>6673.74</t>
+          <t>6673.74 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>158 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>5640</t>
+          <t>5640 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>3017.53</t>
+          <t>3017.53 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>395 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>14537</t>
+          <t>14537 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>7339.14</t>
+          <t>7339.14 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>966</t>
+          <t>966 msec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>5236</t>
+          <t>5236 msec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>2792.90</t>
+          <t>2792.90 msec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>220 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>5239</t>
+          <t>5239 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>2797.55</t>
+          <t>2797.55 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>104 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>5239</t>
+          <t>5239 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>2798.42</t>
+          <t>2798.42 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>1050 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>14275</t>
+          <t>14275 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>7499.73</t>
+          <t>7499.73 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>322 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5245 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>2797.23</t>
+          <t>2797.23 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>112 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>5234</t>
+          <t>5234 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>2793.33</t>
+          <t>2793.33 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>465 msec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>14050</t>
+          <t>14050 msec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>7129.77</t>
+          <t>7129.77 msec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>224 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>5244</t>
+          <t>5244 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>2794.60</t>
+          <t>2794.60 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>51 msec</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>5363</t>
+          <t>5363 msec</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>2810.91</t>
+          <t>2810.91 msec</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
